--- a/GA_bNa_bCa_NaK/Errors_ctrl6.xlsx
+++ b/GA_bNa_bCa_NaK/Errors_ctrl6.xlsx
@@ -447,634 +447,634 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>451008.4772993584</v>
+        <v>436387.5949963678</v>
       </c>
       <c r="B2" t="n">
-        <v>5813.205911894574</v>
+        <v>3762.880086751021</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>427399.3896479459</v>
+        <v>420543.3332044409</v>
       </c>
       <c r="B3" t="n">
-        <v>5813.205911894574</v>
+        <v>48602.77126826387</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>381390.6566029133</v>
+        <v>356859.7123787031</v>
       </c>
       <c r="B4" t="n">
-        <v>43582.71976050569</v>
+        <v>42806.98132438717</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>386212.2155485761</v>
+        <v>360784.6181502456</v>
       </c>
       <c r="B5" t="n">
-        <v>46133.53768934782</v>
+        <v>54379.78435910102</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>379973.1265691047</v>
+        <v>345022.1456883228</v>
       </c>
       <c r="B6" t="n">
-        <v>45842.47993142877</v>
+        <v>14381.70831968556</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>325823.7583411958</v>
+        <v>327910.5525724369</v>
       </c>
       <c r="B7" t="n">
-        <v>27588.88542030458</v>
+        <v>44592.26620321652</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>322468.5747311668</v>
+        <v>362746.7040936616</v>
       </c>
       <c r="B8" t="n">
-        <v>16529.45908846219</v>
+        <v>29300.49394096087</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>292968.1177744591</v>
+        <v>308689.3000590492</v>
       </c>
       <c r="B9" t="n">
-        <v>15865.89926722563</v>
+        <v>35269.81635337588</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>314596.9153677833</v>
+        <v>317147.1690755555</v>
       </c>
       <c r="B10" t="n">
-        <v>28563.45912418003</v>
+        <v>8578.160874848369</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>256201.1763985611</v>
+        <v>328236.2689518907</v>
       </c>
       <c r="B11" t="n">
-        <v>15038.91095441305</v>
+        <v>17397.83716075098</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>244251.093140799</v>
+        <v>330283.4250829768</v>
       </c>
       <c r="B12" t="n">
-        <v>9095.379511280848</v>
+        <v>14889.06904334949</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>244314.2747734717</v>
+        <v>308649.5962886834</v>
       </c>
       <c r="B13" t="n">
-        <v>8026.170366026318</v>
+        <v>5587.835049003371</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>215671.0058528141</v>
+        <v>344463.5246590157</v>
       </c>
       <c r="B14" t="n">
-        <v>22128.46124772986</v>
+        <v>20056.87730574945</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>184865.014024967</v>
+        <v>290001.3987313565</v>
       </c>
       <c r="B15" t="n">
-        <v>22689.21512839819</v>
+        <v>4931.436835130979</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>168555.9735977731</v>
+        <v>314903.1298609551</v>
       </c>
       <c r="B16" t="n">
-        <v>14712.90867918545</v>
+        <v>3646.278766236778</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>153923.3968759559</v>
+        <v>316853.6337976187</v>
       </c>
       <c r="B17" t="n">
-        <v>16682.04822744397</v>
+        <v>4734.574605959194</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>141040.0133288658</v>
+        <v>290148.6073523398</v>
       </c>
       <c r="B18" t="n">
-        <v>20150.76099677681</v>
+        <v>4958.835464923834</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>151325.5758757944</v>
+        <v>246995.3182982498</v>
       </c>
       <c r="B19" t="n">
-        <v>18496.19417917537</v>
+        <v>4919.2486471271</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131622.5873842131</v>
+        <v>236545.344601256</v>
       </c>
       <c r="B20" t="n">
-        <v>14787.01152241953</v>
+        <v>5014.688766353534</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>141335.3699549559</v>
+        <v>249652.2742296754</v>
       </c>
       <c r="B21" t="n">
-        <v>12602.16236738828</v>
+        <v>4499.07197908579</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>103763.0783325225</v>
+        <v>226071.776911987</v>
       </c>
       <c r="B22" t="n">
-        <v>12878.01761746324</v>
+        <v>4112.487727178311</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>99246.53579727595</v>
+        <v>259818.3865019266</v>
       </c>
       <c r="B23" t="n">
-        <v>11174.85659956257</v>
+        <v>4893.499110487213</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>123936.187691184</v>
+        <v>226564.1627418724</v>
       </c>
       <c r="B24" t="n">
-        <v>11595.09613185027</v>
+        <v>8105.911656954675</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>117081.4904910475</v>
+        <v>187122.7020773771</v>
       </c>
       <c r="B25" t="n">
-        <v>6724.230913124758</v>
+        <v>12211.22203305779</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>138620.5729767579</v>
+        <v>150534.7206351492</v>
       </c>
       <c r="B26" t="n">
-        <v>5797.836250731425</v>
+        <v>5404.570432299048</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>79257.05058055467</v>
+        <v>107680.4014103432</v>
       </c>
       <c r="B27" t="n">
-        <v>5917.738292715298</v>
+        <v>5206.668219941581</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>102620.9265732195</v>
+        <v>81967.24103900467</v>
       </c>
       <c r="B28" t="n">
-        <v>5538.530821612319</v>
+        <v>4347.466836453807</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>137721.1377790314</v>
+        <v>75740.47108294735</v>
       </c>
       <c r="B29" t="n">
-        <v>5462.138440689493</v>
+        <v>3759.211627908232</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>109746.6074026709</v>
+        <v>106522.3344434913</v>
       </c>
       <c r="B30" t="n">
-        <v>5529.960131048495</v>
+        <v>2877.934083235773</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>97568.44769277844</v>
+        <v>45272.49706902617</v>
       </c>
       <c r="B31" t="n">
-        <v>5457.202089836762</v>
+        <v>3742.970317670371</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>107788.69090128</v>
+        <v>44279.26945931763</v>
       </c>
       <c r="B32" t="n">
-        <v>5406.174523393175</v>
+        <v>2135.660601565896</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>129798.4747663267</v>
+        <v>41409.14084641848</v>
       </c>
       <c r="B33" t="n">
-        <v>4844.826941442863</v>
+        <v>3251.53367153908</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>119901.3329321497</v>
+        <v>24388.98100993796</v>
       </c>
       <c r="B34" t="n">
-        <v>4623.845391804904</v>
+        <v>3358.671705482235</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>117577.2525375044</v>
+        <v>55989.3250716049</v>
       </c>
       <c r="B35" t="n">
-        <v>4420.726307302543</v>
+        <v>2903.52467859938</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>61788.84856294723</v>
+        <v>45687.92941937639</v>
       </c>
       <c r="B36" t="n">
-        <v>3951.747948654598</v>
+        <v>2471.821223090098</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>130249.0574801585</v>
+        <v>35986.51260731446</v>
       </c>
       <c r="B37" t="n">
-        <v>4311.508217334146</v>
+        <v>2158.735071520751</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>102407.6449249722</v>
+        <v>28743.4803146443</v>
       </c>
       <c r="B38" t="n">
-        <v>4316.65677716657</v>
+        <v>2486.284715109102</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>68561.72807812547</v>
+        <v>13131.12505983816</v>
       </c>
       <c r="B39" t="n">
-        <v>4429.196993958308</v>
+        <v>2390.488970930336</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>95780.79186816918</v>
+        <v>31716.54323731148</v>
       </c>
       <c r="B40" t="n">
-        <v>4277.433600807663</v>
+        <v>2388.497439188199</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>92845.30457677874</v>
+        <v>33205.96699061943</v>
       </c>
       <c r="B41" t="n">
-        <v>4278.785732330496</v>
+        <v>2286.431345352319</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>55501.37557820292</v>
+        <v>52895.10332654459</v>
       </c>
       <c r="B42" t="n">
-        <v>4191.748902515978</v>
+        <v>2298.004462492004</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>52530.25898377874</v>
+        <v>51532.87065404959</v>
       </c>
       <c r="B43" t="n">
-        <v>4234.168072934303</v>
+        <v>2223.062816563221</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>65342.55169116617</v>
+        <v>46014.22024249515</v>
       </c>
       <c r="B44" t="n">
-        <v>4092.349075290193</v>
+        <v>2209.029379764049</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>25042.71198866458</v>
+        <v>41894.88853282983</v>
       </c>
       <c r="B45" t="n">
-        <v>3548.752652283947</v>
+        <v>2139.065759960422</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>41229.79978330548</v>
+        <v>53780.77342407079</v>
       </c>
       <c r="B46" t="n">
-        <v>3412.556333547301</v>
+        <v>2063.791483433961</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>23583.70857217105</v>
+        <v>61545.93481569541</v>
       </c>
       <c r="B47" t="n">
-        <v>3550.266004519285</v>
+        <v>1822.562776761445</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>46267.73780932892</v>
+        <v>66691.2106944941</v>
       </c>
       <c r="B48" t="n">
-        <v>3685.142991519891</v>
+        <v>2032.149129123113</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>18898.75128443706</v>
+        <v>97417.64025662711</v>
       </c>
       <c r="B49" t="n">
-        <v>3141.130342992168</v>
+        <v>1994.372969654911</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>30924.46915799576</v>
+        <v>78546.32955708588</v>
       </c>
       <c r="B50" t="n">
-        <v>3267.437946724323</v>
+        <v>1786.903102325971</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>42067.41166978583</v>
+        <v>111936.4426137372</v>
       </c>
       <c r="B51" t="n">
-        <v>3196.301878627894</v>
+        <v>1965.559575689122</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>32757.07602644309</v>
+        <v>63304.79777034147</v>
       </c>
       <c r="B52" t="n">
-        <v>3196.301878627894</v>
+        <v>1852.750295241686</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>62314.67857632524</v>
+        <v>87748.7297900967</v>
       </c>
       <c r="B53" t="n">
-        <v>3315.775282374626</v>
+        <v>1908.925129112518</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>61515.09450666989</v>
+        <v>65899.53535937676</v>
       </c>
       <c r="B54" t="n">
-        <v>3110.237474336252</v>
+        <v>1842.551765121512</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>41221.56353521842</v>
+        <v>79233.98077662215</v>
       </c>
       <c r="B55" t="n">
-        <v>3058.931847406904</v>
+        <v>1856.862522727052</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>40763.2742782862</v>
+        <v>50741.37971058459</v>
       </c>
       <c r="B56" t="n">
-        <v>2918.695861172913</v>
+        <v>1528.892118915818</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>41109.14522857374</v>
+        <v>32932.16425202123</v>
       </c>
       <c r="B57" t="n">
-        <v>2697.73517346803</v>
+        <v>1654.328855864576</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>67146.32283065403</v>
+        <v>88328.44999311006</v>
       </c>
       <c r="B58" t="n">
-        <v>3076.584123490253</v>
+        <v>1800.978424030742</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>86486.64389876847</v>
+        <v>82542.26417076933</v>
       </c>
       <c r="B59" t="n">
-        <v>2502.063956786992</v>
+        <v>1657.569180097224</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>55597.93345259466</v>
+        <v>42746.53489234955</v>
       </c>
       <c r="B60" t="n">
-        <v>2376.685330917562</v>
+        <v>1634.404488833867</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>94829.40041324204</v>
+        <v>72630.04688817174</v>
       </c>
       <c r="B61" t="n">
-        <v>2975.350950299209</v>
+        <v>1769.883391160416</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>72448.82169800576</v>
+        <v>78327.71354720434</v>
       </c>
       <c r="B62" t="n">
-        <v>2924.540736605798</v>
+        <v>1630.249738269222</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>50532.72957399049</v>
+        <v>47720.60976297422</v>
       </c>
       <c r="B63" t="n">
-        <v>2862.973728454394</v>
+        <v>1687.53285796501</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>48538.15569813166</v>
+        <v>85419.98015524939</v>
       </c>
       <c r="B64" t="n">
-        <v>2779.818627350207</v>
+        <v>1636.83845401116</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>57175.42023216191</v>
+        <v>77392.02260909874</v>
       </c>
       <c r="B65" t="n">
-        <v>2748.441494804631</v>
+        <v>1665.960095006119</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>68322.26376894658</v>
+        <v>72561.89341970738</v>
       </c>
       <c r="B66" t="n">
-        <v>2888.448898470635</v>
+        <v>1601.368792106738</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>57458.86009881026</v>
+        <v>62378.79489923282</v>
       </c>
       <c r="B67" t="n">
-        <v>2896.603951706087</v>
+        <v>1586.829511756288</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>66098.96162763302</v>
+        <v>67332.40459037934</v>
       </c>
       <c r="B68" t="n">
-        <v>2730.309792298222</v>
+        <v>1720.375835124521</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>67119.45535042987</v>
+        <v>68320.25506225247</v>
       </c>
       <c r="B69" t="n">
-        <v>2806.711495199737</v>
+        <v>1618.53264872802</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>42914.21981434789</v>
+        <v>100319.1172287416</v>
       </c>
       <c r="B70" t="n">
-        <v>2803.562382391764</v>
+        <v>1618.53264872802</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>63949.55418530935</v>
+        <v>96267.33624014969</v>
       </c>
       <c r="B71" t="n">
-        <v>2753.308280752985</v>
+        <v>1654.273269090686</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>37253.9061979152</v>
+        <v>50882.06725607038</v>
       </c>
       <c r="B72" t="n">
-        <v>2737.528093382863</v>
+        <v>1651.568291960368</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>67626.13957763936</v>
+        <v>35532.80176290287</v>
       </c>
       <c r="B73" t="n">
-        <v>2749.264041247147</v>
+        <v>1493.646325088263</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>59357.64448627081</v>
+        <v>57363.5278883413</v>
       </c>
       <c r="B74" t="n">
-        <v>2736.213390916496</v>
+        <v>1348.303790522829</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>64866.06377248312</v>
+        <v>62186.42666303326</v>
       </c>
       <c r="B75" t="n">
-        <v>2649.278179774341</v>
+        <v>1404.932790015895</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>102840.6820352689</v>
+        <v>58538.93333779415</v>
       </c>
       <c r="B76" t="n">
-        <v>2777.790055171512</v>
+        <v>1394.12518012958</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>69379.72643153598</v>
+        <v>92147.83230280521</v>
       </c>
       <c r="B77" t="n">
-        <v>2562.834190638132</v>
+        <v>1294.465926037388</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>65144.03572951593</v>
+        <v>57456.90715955783</v>
       </c>
       <c r="B78" t="n">
-        <v>2689.120656997584</v>
+        <v>1424.608274989532</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>73466.82995642042</v>
+        <v>72272.2237834516</v>
       </c>
       <c r="B79" t="n">
-        <v>2607.21581175197</v>
+        <v>1502.332116284447</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>59684.64513160888</v>
+        <v>78309.49236749631</v>
       </c>
       <c r="B80" t="n">
-        <v>2614.25663353628</v>
+        <v>1347.206920930778</v>
       </c>
     </row>
   </sheetData>
